--- a/ribbon_xnk_sunzex/hoa_don_mau/tisu/3HS PACKING.xlsx
+++ b/ribbon_xnk_sunzex/hoa_don_mau/tisu/3HS PACKING.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27720" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="PACKING (2)" sheetId="1" r:id="rId1"/>
@@ -140,19 +140,19 @@
     <t>bìa PP, 200 trang, lò xo,26.6x20.3cm</t>
   </si>
   <si>
-    <t>bìa PP, 150 trang, lò xo,26.6x20.3</t>
-  </si>
-  <si>
     <t>PO#8989497</t>
   </si>
   <si>
     <t>PO # 0081-8989497</t>
+  </si>
+  <si>
+    <t>bìa PP, 150 trang, lò xo,26.6x20.3 cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1354,6 +1354,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1388,6 +1389,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1563,14 +1565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B28" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B13" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1789,7 +1791,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="21"/>
       <c r="E8" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
@@ -1957,7 +1959,7 @@
     </row>
     <row r="14" spans="1:24">
       <c r="B14" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
@@ -2304,7 +2306,7 @@
       <c r="C32" s="64"/>
       <c r="D32" s="58"/>
       <c r="E32" s="58" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32" s="60"/>
       <c r="G32" s="65"/>
@@ -2424,7 +2426,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>